--- a/artfynd/A 9126-2023.xlsx
+++ b/artfynd/A 9126-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>108364166</v>
+        <v>108364183</v>
       </c>
       <c r="B2" t="n">
         <v>98520</v>
@@ -713,7 +713,11 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -724,10 +728,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>663810.6961688169</v>
+        <v>664223.2535477715</v>
       </c>
       <c r="R2" t="n">
-        <v>6706543.098561053</v>
+        <v>6706653.176949463</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -797,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>108364183</v>
+        <v>108364184</v>
       </c>
       <c r="B3" t="n">
         <v>98520</v>
@@ -830,11 +834,7 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>664223.2535477715</v>
+        <v>664228.1234533084</v>
       </c>
       <c r="R3" t="n">
-        <v>6706653.176949463</v>
+        <v>6706654.879753803</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>108368216</v>
+        <v>108367426</v>
       </c>
       <c r="B4" t="n">
         <v>98520</v>
@@ -952,23 +952,19 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>664202.0466807231</v>
+        <v>664205.9515626372</v>
       </c>
       <c r="R4" t="n">
-        <v>6706651.720426381</v>
+        <v>6706652.885488234</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1016,26 +1012,25 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Alex Karlstens</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Alex Karlstens, Henrike Wiemker</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>108364160</v>
+        <v>108423324</v>
       </c>
       <c r="B5" t="n">
         <v>98520</v>
@@ -1071,17 +1066,17 @@
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo-Göksnåre, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>664233.4578910244</v>
+        <v>664226.3261913233</v>
       </c>
       <c r="R5" t="n">
-        <v>6706777.115996484</v>
+        <v>6706639.980795574</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1121,11 +1116,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>&gt; 70 st</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1140,19 +1130,19 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ingemar Södergren</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ingemar Södergren</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>108364173</v>
+        <v>108368216</v>
       </c>
       <c r="B6" t="n">
         <v>98520</v>
@@ -1185,28 +1175,24 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>664008.9712108457</v>
+        <v>664202.0466807231</v>
       </c>
       <c r="R6" t="n">
-        <v>6706338.207076589</v>
+        <v>6706651.720426381</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1261,19 +1247,19 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Alex Karlstens</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Alex Karlstens, Henrike Wiemker</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>108364159</v>
+        <v>108366248</v>
       </c>
       <c r="B7" t="n">
         <v>98520</v>
@@ -1306,24 +1292,20 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>664164.1580053223</v>
+        <v>664202.0899005383</v>
       </c>
       <c r="R7" t="n">
-        <v>6706745.3245108</v>
+        <v>6706639.868494829</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1371,26 +1353,25 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elin Lönnberg</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elin Lönnberg</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>108370284</v>
+        <v>108364177</v>
       </c>
       <c r="B8" t="n">
         <v>98520</v>
@@ -1424,19 +1405,23 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>664336.7893820903</v>
+        <v>664302.6912898349</v>
       </c>
       <c r="R8" t="n">
-        <v>6706506.204424925</v>
+        <v>6706429.083239628</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1478,36 +1463,32 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>#SAKNAS!</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Rebecka Wikström</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Rebecka Wikström</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>108368212</v>
+        <v>108369535</v>
       </c>
       <c r="B9" t="n">
         <v>98520</v>
@@ -1541,20 +1522,16 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>664303.1701632617</v>
+        <v>664287.7706922751</v>
       </c>
       <c r="R9" t="n">
-        <v>6706494.798814203</v>
+        <v>6706093.003061255</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1605,26 +1582,25 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Alex Karlstens</t>
+          <t>Sebastian Rylander Misgeld</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Alex Karlstens, Henrike Wiemker</t>
+          <t>Sebastian Rylander Misgeld</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>108366384</v>
+        <v>108364166</v>
       </c>
       <c r="B10" t="n">
         <v>98520</v>
@@ -1658,19 +1634,23 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>663950.469004642</v>
+        <v>663810.6961688169</v>
       </c>
       <c r="R10" t="n">
-        <v>6706471.883466172</v>
+        <v>6706543.098561053</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1712,39 +1692,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>#SAKNAS!</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>108364153</v>
+        <v>108364160</v>
       </c>
       <c r="B11" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1753,46 +1729,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>..., Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>664358.1784950673</v>
+        <v>664233.4578910244</v>
       </c>
       <c r="R11" t="n">
-        <v>6706089.778611525</v>
+        <v>6706777.115996484</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1837,13 +1805,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>&gt; 70 st</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1862,10 +1834,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>108366374</v>
+        <v>108364173</v>
       </c>
       <c r="B12" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1874,41 +1846,49 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>664065.1156175316</v>
+        <v>664008.9712108457</v>
       </c>
       <c r="R12" t="n">
-        <v>6706420.277873509</v>
+        <v>6706338.207076589</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1950,39 +1930,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>~15</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>108366368</v>
+        <v>108364159</v>
       </c>
       <c r="B13" t="n">
-        <v>95519</v>
+        <v>98520</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1995,37 +1971,41 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>664310.390329506</v>
+        <v>664164.1580053223</v>
       </c>
       <c r="R13" t="n">
-        <v>6706640.834387085</v>
+        <v>6706745.3245108</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2067,36 +2047,32 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>#SAKNAS!</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>108362978</v>
+        <v>108370284</v>
       </c>
       <c r="B14" t="n">
         <v>98520</v>
@@ -2130,23 +2106,19 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>664358.716905606</v>
+        <v>664336.7893820903</v>
       </c>
       <c r="R14" t="n">
-        <v>6706524.488135655</v>
+        <v>6706506.204424925</v>
       </c>
       <c r="S14" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2188,32 +2160,36 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>#SAKNAS!</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Rebecka Wikström</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Rebecka Wikström</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>108364176</v>
+        <v>108368212</v>
       </c>
       <c r="B15" t="n">
         <v>98520</v>
@@ -2253,17 +2229,17 @@
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>664357.0554228717</v>
+        <v>664303.1701632617</v>
       </c>
       <c r="R15" t="n">
-        <v>6706081.823755138</v>
+        <v>6706494.798814203</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2318,22 +2294,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Alex Karlstens</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Alex Karlstens, Henrike Wiemker</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>108366378</v>
+        <v>108366384</v>
       </c>
       <c r="B16" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2342,25 +2318,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2370,10 +2346,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>664061.6738701967</v>
+        <v>663950.469004642</v>
       </c>
       <c r="R16" t="n">
-        <v>6706376.160810499</v>
+        <v>6706471.883466172</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2420,7 +2396,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>40+</t>
+          <t>#SAKNAS!</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2447,7 +2423,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>108366379</v>
+        <v>108364153</v>
       </c>
       <c r="B17" t="n">
         <v>96334</v>
@@ -2480,20 +2456,28 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>664345.1822775409</v>
+        <v>664358.1784950673</v>
       </c>
       <c r="R17" t="n">
-        <v>6706081.778464028</v>
+        <v>6706089.778611525</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2535,39 +2519,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>6 st individer</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>108368201</v>
+        <v>108366374</v>
       </c>
       <c r="B18" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2576,45 +2556,41 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>664043.2345453694</v>
+        <v>664065.1156175316</v>
       </c>
       <c r="R18" t="n">
-        <v>6706662.790294011</v>
+        <v>6706420.277873509</v>
       </c>
       <c r="S18" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2656,35 +2632,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>~15</t>
+        </is>
+      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Alex Karlstens</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Alex Karlstens, Henrike Wiemker</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>108367422</v>
+        <v>108366368</v>
       </c>
       <c r="B19" t="n">
-        <v>98520</v>
+        <v>95519</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2697,21 +2677,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>222498</v>
+        <v>221945</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2721,13 +2701,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>664031.9927673884</v>
+        <v>664310.390329506</v>
       </c>
       <c r="R19" t="n">
-        <v>6706430.630560055</v>
+        <v>6706640.834387085</v>
       </c>
       <c r="S19" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2767,6 +2747,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>#SAKNAS!</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2781,19 +2766,19 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>108366389</v>
+        <v>108362978</v>
       </c>
       <c r="B20" t="n">
         <v>98520</v>
@@ -2827,19 +2812,23 @@
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>664390.7774999265</v>
+        <v>664358.716905606</v>
       </c>
       <c r="R20" t="n">
-        <v>6706679.060225561</v>
+        <v>6706524.488135655</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2881,39 +2870,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>#SAKNAS!</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>108362970</v>
+        <v>108364176</v>
       </c>
       <c r="B21" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2922,41 +2907,45 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>664050.0313263643</v>
+        <v>664357.0554228717</v>
       </c>
       <c r="R21" t="n">
-        <v>6706403.78774385</v>
+        <v>6706081.823755138</v>
       </c>
       <c r="S21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2998,39 +2987,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>10 st</t>
-        </is>
-      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>108369212</v>
+        <v>108366378</v>
       </c>
       <c r="B22" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3039,25 +3024,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3067,13 +3052,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>664376.7433143377</v>
+        <v>664061.6738701967</v>
       </c>
       <c r="R22" t="n">
-        <v>6706585.072281209</v>
+        <v>6706376.160810499</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3117,7 +3102,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>#SAKNAS!</t>
+          <t>40+</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3132,22 +3117,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Nadja Nilsson</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Nadja Nilsson</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>108364168</v>
+        <v>108366379</v>
       </c>
       <c r="B23" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3156,45 +3141,41 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>663800.9281762429</v>
+        <v>664345.1822775409</v>
       </c>
       <c r="R23" t="n">
-        <v>6706431.02856625</v>
+        <v>6706081.778464028</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3236,32 +3217,36 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>6 st individer</t>
+        </is>
+      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>108364169</v>
+        <v>108368201</v>
       </c>
       <c r="B24" t="n">
         <v>98520</v>
@@ -3294,28 +3279,24 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>664031.6798924522</v>
+        <v>664043.2345453694</v>
       </c>
       <c r="R24" t="n">
-        <v>6706437.531513099</v>
+        <v>6706662.790294011</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3370,19 +3351,19 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Alex Karlstens</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Alex Karlstens, Henrike Wiemker</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>108369533</v>
+        <v>108367422</v>
       </c>
       <c r="B25" t="n">
         <v>98520</v>
@@ -3422,13 +3403,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>664278.1608715461</v>
+        <v>664031.9927673884</v>
       </c>
       <c r="R25" t="n">
-        <v>6706064.903315648</v>
+        <v>6706430.630560055</v>
       </c>
       <c r="S25" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3468,11 +3449,6 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Ä</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3487,19 +3463,19 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Sebastian Rylander Misgeld</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Sebastian Rylander Misgeld</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>108366386</v>
+        <v>108366389</v>
       </c>
       <c r="B26" t="n">
         <v>98520</v>
@@ -3539,10 +3515,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>664317.9843146978</v>
+        <v>664390.7774999265</v>
       </c>
       <c r="R26" t="n">
-        <v>6706517.204654344</v>
+        <v>6706679.060225561</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3616,10 +3592,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>108366248</v>
+        <v>108362970</v>
       </c>
       <c r="B27" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3628,25 +3604,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3656,13 +3632,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>664202.0899005383</v>
+        <v>664050.0313263643</v>
       </c>
       <c r="R27" t="n">
-        <v>6706639.868494829</v>
+        <v>6706403.78774385</v>
       </c>
       <c r="S27" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3702,6 +3678,11 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>10 st</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3716,22 +3697,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Elin Lönnberg</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Elin Lönnberg</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>108362971</v>
+        <v>108369212</v>
       </c>
       <c r="B28" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3740,49 +3721,41 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>664036.3631341013</v>
+        <v>664376.7433143377</v>
       </c>
       <c r="R28" t="n">
-        <v>6706399.710419852</v>
+        <v>6706585.072281209</v>
       </c>
       <c r="S28" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3826,7 +3799,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>20 st</t>
+          <t>#SAKNAS!</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3835,29 +3808,28 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Nadja Nilsson</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Nadja Nilsson</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>108362973</v>
+        <v>108364168</v>
       </c>
       <c r="B29" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3866,49 +3838,45 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>664068.2285900875</v>
+        <v>663800.9281762429</v>
       </c>
       <c r="R29" t="n">
-        <v>6706384.361181245</v>
+        <v>6706431.02856625</v>
       </c>
       <c r="S29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3948,11 +3916,6 @@
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>20 st</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3968,19 +3931,19 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>108368211</v>
+        <v>108364169</v>
       </c>
       <c r="B30" t="n">
         <v>98520</v>
@@ -4015,7 +3978,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -4024,17 +3987,17 @@
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>664296.1290494655</v>
+        <v>664031.6798924522</v>
       </c>
       <c r="R30" t="n">
-        <v>6705985.197514531</v>
+        <v>6706437.531513099</v>
       </c>
       <c r="S30" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4074,11 +4037,6 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>ca 20</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4094,19 +4052,19 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Alex Karlstens</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Alex Karlstens, Henrike Wiemker</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>108364184</v>
+        <v>108369533</v>
       </c>
       <c r="B31" t="n">
         <v>98520</v>
@@ -4140,23 +4098,19 @@
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>664228.1234533084</v>
+        <v>664278.1608715461</v>
       </c>
       <c r="R31" t="n">
-        <v>6706654.879753803</v>
+        <v>6706064.903315648</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4198,32 +4152,36 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Ä</t>
+        </is>
+      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Sebastian Rylander Misgeld</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Sebastian Rylander Misgeld</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>108364163</v>
+        <v>108366386</v>
       </c>
       <c r="B32" t="n">
         <v>98520</v>
@@ -4257,23 +4215,19 @@
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>664183.904062137</v>
+        <v>664317.9843146978</v>
       </c>
       <c r="R32" t="n">
-        <v>6706735.354853709</v>
+        <v>6706517.204654344</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4317,7 +4271,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>&gt; 10 st</t>
+          <t>#SAKNAS!</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4326,29 +4280,28 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>108369534</v>
+        <v>108362971</v>
       </c>
       <c r="B33" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4357,41 +4310,49 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>664311.3445020401</v>
+        <v>664036.3631341013</v>
       </c>
       <c r="R33" t="n">
-        <v>6705966.128203513</v>
+        <v>6706399.710419852</v>
       </c>
       <c r="S33" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4433,34 +4394,40 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>20 st</t>
+        </is>
+      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Sebastian Rylander Misgeld</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Sebastian Rylander Misgeld</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>108364182</v>
+        <v>108362973</v>
       </c>
       <c r="B34" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4469,30 +4436,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -4501,17 +4468,17 @@
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>664315.6042783445</v>
+        <v>664068.2285900875</v>
       </c>
       <c r="R34" t="n">
-        <v>6706711.206382412</v>
+        <v>6706384.361181245</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4551,6 +4518,11 @@
       <c r="AB34" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>20 st</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4566,19 +4538,19 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>108364170</v>
+        <v>108368211</v>
       </c>
       <c r="B35" t="n">
         <v>98520</v>
@@ -4613,7 +4585,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -4622,17 +4594,17 @@
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>664031.2246272038</v>
+        <v>664296.1290494655</v>
       </c>
       <c r="R35" t="n">
-        <v>6706403.922936056</v>
+        <v>6705985.197514531</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4672,6 +4644,11 @@
       <c r="AB35" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>ca 20</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4687,19 +4664,19 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Alex Karlstens</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Alex Karlstens, Henrike Wiemker</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>108364175</v>
+        <v>108364163</v>
       </c>
       <c r="B36" t="n">
         <v>98520</v>
@@ -4732,11 +4709,7 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -4747,10 +4720,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>664351.3079933061</v>
+        <v>664183.904062137</v>
       </c>
       <c r="R36" t="n">
-        <v>6706066.742948183</v>
+        <v>6706735.354853709</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4793,6 +4766,11 @@
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>&gt; 10 st</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4820,7 +4798,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>108370283</v>
+        <v>108364182</v>
       </c>
       <c r="B37" t="n">
         <v>98520</v>
@@ -4853,20 +4831,28 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>664308.1460447711</v>
+        <v>664315.6042783445</v>
       </c>
       <c r="R37" t="n">
-        <v>6706058.360879435</v>
+        <v>6706711.206382412</v>
       </c>
       <c r="S37" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4908,39 +4894,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>#SAKNAS!</t>
-        </is>
-      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Rebecka Wikström</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Rebecka Wikström</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>108368196</v>
+        <v>108364170</v>
       </c>
       <c r="B38" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4949,30 +4931,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -4981,17 +4963,17 @@
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>664351.2643915763</v>
+        <v>664031.2246272038</v>
       </c>
       <c r="R38" t="n">
-        <v>6706078.596774301</v>
+        <v>6706403.922936056</v>
       </c>
       <c r="S38" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5031,11 +5013,6 @@
       <c r="AB38" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>ca 30 rosetter</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5051,19 +5028,19 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Alex Karlstens</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Alex Karlstens, Henrike Wiemker</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>108367426</v>
+        <v>108364175</v>
       </c>
       <c r="B39" t="n">
         <v>98520</v>
@@ -5096,20 +5073,28 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>664205.9515626372</v>
+        <v>664351.3079933061</v>
       </c>
       <c r="R39" t="n">
-        <v>6706652.885488234</v>
+        <v>6706066.742948183</v>
       </c>
       <c r="S39" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5157,25 +5142,26 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>108369213</v>
+        <v>108370283</v>
       </c>
       <c r="B40" t="n">
         <v>98520</v>
@@ -5215,10 +5201,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>664339.5368474015</v>
+        <v>664308.1460447711</v>
       </c>
       <c r="R40" t="n">
-        <v>6706598.199619171</v>
+        <v>6706058.360879435</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5280,19 +5266,19 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Nadja Nilsson</t>
+          <t>Rebecka Wikström</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Nadja Nilsson</t>
+          <t>Rebecka Wikström</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>108366376</v>
+        <v>108368196</v>
       </c>
       <c r="B41" t="n">
         <v>96334</v>
@@ -5325,20 +5311,28 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>664056.4479009026</v>
+        <v>664351.2643915763</v>
       </c>
       <c r="R41" t="n">
-        <v>6706393.211933863</v>
+        <v>6706078.596774301</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5382,7 +5376,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>#SAKNAS!</t>
+          <t>ca 30 rosetter</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5391,25 +5385,26 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Alex Karlstens</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Alex Karlstens, Henrike Wiemker</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>108364178</v>
+        <v>108369213</v>
       </c>
       <c r="B42" t="n">
         <v>98520</v>
@@ -5442,28 +5437,20 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>664287.0339200129</v>
+        <v>664339.5368474015</v>
       </c>
       <c r="R42" t="n">
-        <v>6706490.608501049</v>
+        <v>6706598.199619171</v>
       </c>
       <c r="S42" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5505,35 +5492,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>#SAKNAS!</t>
+        </is>
+      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
       <c r="AE42" t="b">
         <v>0</v>
       </c>
-      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Nadja Nilsson</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Nadja Nilsson</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>108368208</v>
+        <v>108366376</v>
       </c>
       <c r="B43" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5542,45 +5533,41 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>664027.0512573549</v>
+        <v>664056.4479009026</v>
       </c>
       <c r="R43" t="n">
-        <v>6706408.673150744</v>
+        <v>6706393.211933863</v>
       </c>
       <c r="S43" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5622,35 +5609,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>#SAKNAS!</t>
+        </is>
+      </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
         <v>0</v>
       </c>
-      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Alex Karlstens</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Alex Karlstens, Henrike Wiemker</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>108368188</v>
+        <v>108364178</v>
       </c>
       <c r="B44" t="n">
-        <v>56411</v>
+        <v>98520</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5659,49 +5650,49 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>664344.3865615834</v>
+        <v>664287.0339200129</v>
       </c>
       <c r="R44" t="n">
-        <v>6705990.352916429</v>
+        <v>6706490.608501049</v>
       </c>
       <c r="S44" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5743,39 +5734,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>hackspår</t>
-        </is>
-      </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="b">
         <v>0</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Alex Karlstens</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Alex Karlstens, Henrike Wiemker</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>108366373</v>
+        <v>108368208</v>
       </c>
       <c r="B45" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5784,41 +5771,45 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>663958.2655427188</v>
+        <v>664027.0512573549</v>
       </c>
       <c r="R45" t="n">
-        <v>6706409.012911058</v>
+        <v>6706408.673150744</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5860,39 +5851,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>#SAKNAS!</t>
-        </is>
-      </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Alex Karlstens</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Alex Karlstens, Henrike Wiemker</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>108362974</v>
+        <v>108368188</v>
       </c>
       <c r="B46" t="n">
-        <v>96334</v>
+        <v>56411</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5901,35 +5888,35 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -5937,13 +5924,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>664066.6783353648</v>
+        <v>664344.3865615834</v>
       </c>
       <c r="R46" t="n">
-        <v>6706374.90590198</v>
+        <v>6705990.352916429</v>
       </c>
       <c r="S46" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5987,7 +5974,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>20 st</t>
+          <t>hackspår</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5996,29 +5983,28 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
-      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Alex Karlstens</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Alex Karlstens, Henrike Wiemker</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>108368206</v>
+        <v>108366373</v>
       </c>
       <c r="B47" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6027,45 +6013,41 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>663806.0217247612</v>
+        <v>663958.2655427188</v>
       </c>
       <c r="R47" t="n">
-        <v>6706427.801624826</v>
+        <v>6706409.012911058</v>
       </c>
       <c r="S47" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6107,35 +6089,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>#SAKNAS!</t>
+        </is>
+      </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Alex Karlstens</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Alex Karlstens, Henrike Wiemker</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>108368205</v>
+        <v>108362974</v>
       </c>
       <c r="B48" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6144,28 +6130,32 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
@@ -6176,13 +6166,13 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>663771.9066559088</v>
+        <v>664066.6783353648</v>
       </c>
       <c r="R48" t="n">
-        <v>6706416.378482279</v>
+        <v>6706374.90590198</v>
       </c>
       <c r="S48" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6222,6 +6212,11 @@
       <c r="AB48" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>20 st</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6237,19 +6232,19 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Alex Karlstens</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Alex Karlstens, Henrike Wiemker</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>108368214</v>
+        <v>108368206</v>
       </c>
       <c r="B49" t="n">
         <v>98520</v>
@@ -6293,10 +6288,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>664390.1407508242</v>
+        <v>663806.0217247612</v>
       </c>
       <c r="R49" t="n">
-        <v>6706584.199258863</v>
+        <v>6706427.801624826</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6366,7 +6361,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>108366247</v>
+        <v>108368205</v>
       </c>
       <c r="B50" t="n">
         <v>98520</v>
@@ -6400,16 +6395,20 @@
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>664314.4742925556</v>
+        <v>663771.9066559088</v>
       </c>
       <c r="R50" t="n">
-        <v>6706638.056388071</v>
+        <v>6706416.378482279</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6460,25 +6459,26 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Elin Lönnberg</t>
+          <t>Alex Karlstens</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Elin Lönnberg</t>
+          <t>Alex Karlstens, Henrike Wiemker</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>108366383</v>
+        <v>108368214</v>
       </c>
       <c r="B51" t="n">
         <v>98520</v>
@@ -6512,19 +6512,23 @@
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>663804.9003548119</v>
+        <v>664390.1407508242</v>
       </c>
       <c r="R51" t="n">
-        <v>6706430.714469573</v>
+        <v>6706584.199258863</v>
       </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6566,36 +6570,32 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>#SAKNAS!</t>
-        </is>
-      </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Alex Karlstens</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Alex Karlstens, Henrike Wiemker</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>108366385</v>
+        <v>108366247</v>
       </c>
       <c r="B52" t="n">
         <v>98520</v>
@@ -6635,13 +6635,13 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>664069.8780527997</v>
+        <v>664314.4742925556</v>
       </c>
       <c r="R52" t="n">
-        <v>6706446.178670711</v>
+        <v>6706638.056388071</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6681,11 +6681,6 @@
       <c r="AB52" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>Bukett</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6700,19 +6695,19 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Elin Lönnberg</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Elin Lönnberg</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>108364177</v>
+        <v>108366383</v>
       </c>
       <c r="B53" t="n">
         <v>98520</v>
@@ -6746,23 +6741,19 @@
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>664302.6912898349</v>
+        <v>663804.9003548119</v>
       </c>
       <c r="R53" t="n">
-        <v>6706429.083239628</v>
+        <v>6706430.714469573</v>
       </c>
       <c r="S53" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6804,32 +6795,36 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>#SAKNAS!</t>
+        </is>
+      </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>108369540</v>
+        <v>108366385</v>
       </c>
       <c r="B54" t="n">
         <v>98520</v>
@@ -6869,13 +6864,13 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>664075.7629492856</v>
+        <v>664069.8780527997</v>
       </c>
       <c r="R54" t="n">
-        <v>6706349.138583452</v>
+        <v>6706446.178670711</v>
       </c>
       <c r="S54" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6915,6 +6910,11 @@
       <c r="AB54" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>Bukett</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6929,19 +6929,19 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Sebastian Rylander Misgeld</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Sebastian Rylander Misgeld</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>108364162</v>
+        <v>108369540</v>
       </c>
       <c r="B55" t="n">
         <v>98520</v>
@@ -6975,23 +6975,19 @@
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>664236.3332918913</v>
+        <v>664075.7629492856</v>
       </c>
       <c r="R55" t="n">
-        <v>6706800.953417752</v>
+        <v>6706349.138583452</v>
       </c>
       <c r="S55" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -7033,37 +7029,31 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>&gt; 10 st</t>
-        </is>
-      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Sebastian Rylander Misgeld</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Sebastian Rylander Misgeld</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>108364180</v>
+        <v>108364162</v>
       </c>
       <c r="B56" t="n">
         <v>98520</v>
@@ -7096,11 +7086,7 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
@@ -7111,10 +7097,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>664296.2343592797</v>
+        <v>664236.3332918913</v>
       </c>
       <c r="R56" t="n">
-        <v>6706484.11120915</v>
+        <v>6706800.953417752</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7157,6 +7143,11 @@
       <c r="AB56" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>&gt; 10 st</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7184,7 +7175,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>108370282</v>
+        <v>108364180</v>
       </c>
       <c r="B57" t="n">
         <v>98520</v>
@@ -7217,20 +7208,28 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>664060.0912197812</v>
+        <v>664296.2343592797</v>
       </c>
       <c r="R57" t="n">
-        <v>6706312.863320662</v>
+        <v>6706484.11120915</v>
       </c>
       <c r="S57" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7272,36 +7271,32 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>#SAKNAS!</t>
-        </is>
-      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Rebecka Wikström</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Rebecka Wikström</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>108369536</v>
+        <v>108370282</v>
       </c>
       <c r="B58" t="n">
         <v>98520</v>
@@ -7341,10 +7336,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>664303.9785297166</v>
+        <v>664060.0912197812</v>
       </c>
       <c r="R58" t="n">
-        <v>6706498.786996139</v>
+        <v>6706312.863320662</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7389,6 +7384,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>#SAKNAS!</t>
+        </is>
+      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
@@ -7401,19 +7401,19 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Sebastian Rylander Misgeld</t>
+          <t>Rebecka Wikström</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Sebastian Rylander Misgeld</t>
+          <t>Rebecka Wikström</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>108369538</v>
+        <v>108369536</v>
       </c>
       <c r="B59" t="n">
         <v>98520</v>
@@ -7453,10 +7453,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>664339.2032271541</v>
+        <v>664303.9785297166</v>
       </c>
       <c r="R59" t="n">
-        <v>6706627.325664996</v>
+        <v>6706498.786996139</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7525,7 +7525,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>108368209</v>
+        <v>108369538</v>
       </c>
       <c r="B60" t="n">
         <v>98520</v>
@@ -7559,20 +7559,16 @@
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>664277.1733043597</v>
+        <v>664339.2032271541</v>
       </c>
       <c r="R60" t="n">
-        <v>6706064.858480364</v>
+        <v>6706627.325664996</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7623,29 +7619,28 @@
       <c r="AE60" t="b">
         <v>0</v>
       </c>
-      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Alex Karlstens</t>
+          <t>Sebastian Rylander Misgeld</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Alex Karlstens, Henrike Wiemker</t>
+          <t>Sebastian Rylander Misgeld</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>108362975</v>
+        <v>108368209</v>
       </c>
       <c r="B61" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7654,32 +7649,28 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
@@ -7690,13 +7681,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>664058.4005024903</v>
+        <v>664277.1733043597</v>
       </c>
       <c r="R61" t="n">
-        <v>6706393.794417568</v>
+        <v>6706064.858480364</v>
       </c>
       <c r="S61" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7736,11 +7727,6 @@
       <c r="AB61" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>10 st</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7756,22 +7742,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Alex Karlstens</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Alex Karlstens, Henrike Wiemker</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>108369535</v>
+        <v>108362975</v>
       </c>
       <c r="B62" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7780,41 +7766,49 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>664287.7706922751</v>
+        <v>664058.4005024903</v>
       </c>
       <c r="R62" t="n">
-        <v>6706093.003061255</v>
+        <v>6706393.794417568</v>
       </c>
       <c r="S62" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7856,24 +7850,30 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>10 st</t>
+        </is>
+      </c>
       <c r="AD62" t="b">
         <v>0</v>
       </c>
       <c r="AE62" t="b">
         <v>0</v>
       </c>
+      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Sebastian Rylander Misgeld</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Sebastian Rylander Misgeld</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
@@ -8230,7 +8230,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>108423324</v>
+        <v>108423321</v>
       </c>
       <c r="B66" t="n">
         <v>98520</v>
@@ -8270,10 +8270,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>664226.3261913233</v>
+        <v>664207.0478797765</v>
       </c>
       <c r="R66" t="n">
-        <v>6706639.980795574</v>
+        <v>6706312.614478189</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8342,10 +8342,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>108423321</v>
+        <v>108423310</v>
       </c>
       <c r="B67" t="n">
-        <v>98520</v>
+        <v>95511</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8358,21 +8358,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>222498</v>
+        <v>221944</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8382,10 +8382,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>664207.0478797765</v>
+        <v>664336.8603618066</v>
       </c>
       <c r="R67" t="n">
-        <v>6706312.614478189</v>
+        <v>6706330.363247767</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8454,10 +8454,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>108423310</v>
+        <v>108423322</v>
       </c>
       <c r="B68" t="n">
-        <v>95511</v>
+        <v>98520</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8470,21 +8470,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>221944</v>
+        <v>222498</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8494,10 +8494,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>664336.8603618066</v>
+        <v>664330.8234481897</v>
       </c>
       <c r="R68" t="n">
-        <v>6706330.363247767</v>
+        <v>6706332.558836454</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8566,7 +8566,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>108423322</v>
+        <v>108423323</v>
       </c>
       <c r="B69" t="n">
         <v>98520</v>
@@ -8606,10 +8606,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>664330.8234481897</v>
+        <v>664362.7209625107</v>
       </c>
       <c r="R69" t="n">
-        <v>6706332.558836454</v>
+        <v>6706621.479216716</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8678,10 +8678,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>108423323</v>
+        <v>108434213</v>
       </c>
       <c r="B70" t="n">
-        <v>98520</v>
+        <v>55649</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8694,34 +8694,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>222498</v>
+        <v>208255</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skogsödla</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Zootoca vivipara</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Jacquin, 1787)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Önsbo-Göksnåre, Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>664362.7209625107</v>
+        <v>664122.3040311314</v>
       </c>
       <c r="R70" t="n">
-        <v>6706621.479216716</v>
+        <v>6706053.878872935</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8748,7 +8748,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2023-04-22</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2023-04-22</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
@@ -8778,22 +8778,22 @@
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
+          <t>Elin Lönnberg</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
+          <t>Elin Lönnberg</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>108434213</v>
+        <v>108369534</v>
       </c>
       <c r="B71" t="n">
-        <v>55649</v>
+        <v>98520</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8806,21 +8806,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>208255</v>
+        <v>222498</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Skogsödla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Zootoca vivipara</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Jacquin, 1787)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>664122.3040311314</v>
+        <v>664311.3445020401</v>
       </c>
       <c r="R71" t="n">
-        <v>6706053.878872935</v>
+        <v>6705966.128203513</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2023-04-22</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -8870,7 +8870,7 @@
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2023-04-22</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
@@ -8890,12 +8890,12 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Elin Lönnberg</t>
+          <t>Sebastian Rylander Misgeld</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Elin Lönnberg</t>
+          <t>Sebastian Rylander Misgeld</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>

--- a/artfynd/A 9126-2023.xlsx
+++ b/artfynd/A 9126-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>108364183</v>
+        <v>108364166</v>
       </c>
       <c r="B2" t="n">
         <v>98520</v>
@@ -713,11 +713,7 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -728,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>664223.2535477715</v>
+        <v>663810.6961688169</v>
       </c>
       <c r="R2" t="n">
-        <v>6706653.176949463</v>
+        <v>6706543.098561053</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -801,7 +797,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>108364184</v>
+        <v>108364183</v>
       </c>
       <c r="B3" t="n">
         <v>98520</v>
@@ -834,7 +830,11 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>664228.1234533084</v>
+        <v>664223.2535477715</v>
       </c>
       <c r="R3" t="n">
-        <v>6706654.879753803</v>
+        <v>6706653.176949463</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>108367426</v>
+        <v>108368216</v>
       </c>
       <c r="B4" t="n">
         <v>98520</v>
@@ -952,19 +952,23 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>664205.9515626372</v>
+        <v>664202.0466807231</v>
       </c>
       <c r="R4" t="n">
-        <v>6706652.885488234</v>
+        <v>6706651.720426381</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1012,25 +1016,26 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Alex Karlstens</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Alex Karlstens, Henrike Wiemker</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>108423324</v>
+        <v>108364160</v>
       </c>
       <c r="B5" t="n">
         <v>98520</v>
@@ -1066,17 +1071,17 @@
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Önsbo-Göksnåre, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>664226.3261913233</v>
+        <v>664233.4578910244</v>
       </c>
       <c r="R5" t="n">
-        <v>6706639.980795574</v>
+        <v>6706777.115996484</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1116,6 +1121,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>&gt; 70 st</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1130,19 +1140,19 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>108368216</v>
+        <v>108364173</v>
       </c>
       <c r="B6" t="n">
         <v>98520</v>
@@ -1175,24 +1185,28 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>664202.0466807231</v>
+        <v>664008.9712108457</v>
       </c>
       <c r="R6" t="n">
-        <v>6706651.720426381</v>
+        <v>6706338.207076589</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1247,19 +1261,19 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Alex Karlstens</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Alex Karlstens, Henrike Wiemker</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>108366248</v>
+        <v>108364159</v>
       </c>
       <c r="B7" t="n">
         <v>98520</v>
@@ -1292,20 +1306,24 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>664202.0899005383</v>
+        <v>664164.1580053223</v>
       </c>
       <c r="R7" t="n">
-        <v>6706639.868494829</v>
+        <v>6706745.3245108</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1353,25 +1371,26 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Elin Lönnberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Elin Lönnberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>108364177</v>
+        <v>108370284</v>
       </c>
       <c r="B8" t="n">
         <v>98520</v>
@@ -1405,23 +1424,19 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>664302.6912898349</v>
+        <v>664336.7893820903</v>
       </c>
       <c r="R8" t="n">
-        <v>6706429.083239628</v>
+        <v>6706506.204424925</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1463,32 +1478,36 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>#SAKNAS!</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Rebecka Wikström</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Rebecka Wikström</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>108369535</v>
+        <v>108368212</v>
       </c>
       <c r="B9" t="n">
         <v>98520</v>
@@ -1522,16 +1541,20 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>664287.7706922751</v>
+        <v>664303.1701632617</v>
       </c>
       <c r="R9" t="n">
-        <v>6706093.003061255</v>
+        <v>6706494.798814203</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1582,25 +1605,26 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Sebastian Rylander Misgeld</t>
+          <t>Alex Karlstens</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Sebastian Rylander Misgeld</t>
+          <t>Alex Karlstens, Henrike Wiemker</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>108364166</v>
+        <v>108366384</v>
       </c>
       <c r="B10" t="n">
         <v>98520</v>
@@ -1634,23 +1658,19 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>663810.6961688169</v>
+        <v>663950.469004642</v>
       </c>
       <c r="R10" t="n">
-        <v>6706543.098561053</v>
+        <v>6706471.883466172</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1692,35 +1712,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>#SAKNAS!</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>108364160</v>
+        <v>108364153</v>
       </c>
       <c r="B11" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1729,38 +1753,46 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>..., Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>664233.4578910244</v>
+        <v>664358.1784950673</v>
       </c>
       <c r="R11" t="n">
-        <v>6706777.115996484</v>
+        <v>6706089.778611525</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1805,17 +1837,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>&gt; 70 st</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1834,10 +1862,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>108364173</v>
+        <v>108366374</v>
       </c>
       <c r="B12" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1846,49 +1874,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>664008.9712108457</v>
+        <v>664065.1156175316</v>
       </c>
       <c r="R12" t="n">
-        <v>6706338.207076589</v>
+        <v>6706420.277873509</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1930,35 +1950,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>~15</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>108364159</v>
+        <v>108366368</v>
       </c>
       <c r="B13" t="n">
-        <v>98520</v>
+        <v>95519</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1971,41 +1995,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222498</v>
+        <v>221945</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>664164.1580053223</v>
+        <v>664310.390329506</v>
       </c>
       <c r="R13" t="n">
-        <v>6706745.3245108</v>
+        <v>6706640.834387085</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2047,32 +2067,36 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>#SAKNAS!</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>108370284</v>
+        <v>108362978</v>
       </c>
       <c r="B14" t="n">
         <v>98520</v>
@@ -2106,19 +2130,23 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>664336.7893820903</v>
+        <v>664358.716905606</v>
       </c>
       <c r="R14" t="n">
-        <v>6706506.204424925</v>
+        <v>6706524.488135655</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2160,36 +2188,32 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>#SAKNAS!</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Rebecka Wikström</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Rebecka Wikström</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>108368212</v>
+        <v>108364176</v>
       </c>
       <c r="B15" t="n">
         <v>98520</v>
@@ -2229,17 +2253,17 @@
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>664303.1701632617</v>
+        <v>664357.0554228717</v>
       </c>
       <c r="R15" t="n">
-        <v>6706494.798814203</v>
+        <v>6706081.823755138</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2294,22 +2318,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Alex Karlstens</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Alex Karlstens, Henrike Wiemker</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>108366384</v>
+        <v>108366378</v>
       </c>
       <c r="B16" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2318,25 +2342,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2346,10 +2370,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>663950.469004642</v>
+        <v>664061.6738701967</v>
       </c>
       <c r="R16" t="n">
-        <v>6706471.883466172</v>
+        <v>6706376.160810499</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2396,7 +2420,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>#SAKNAS!</t>
+          <t>40+</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2423,7 +2447,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>108364153</v>
+        <v>108366379</v>
       </c>
       <c r="B17" t="n">
         <v>96334</v>
@@ -2456,28 +2480,20 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>664358.1784950673</v>
+        <v>664345.1822775409</v>
       </c>
       <c r="R17" t="n">
-        <v>6706089.778611525</v>
+        <v>6706081.778464028</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2519,35 +2535,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>6 st individer</t>
+        </is>
+      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>108366374</v>
+        <v>108368201</v>
       </c>
       <c r="B18" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2556,41 +2576,45 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>664065.1156175316</v>
+        <v>664043.2345453694</v>
       </c>
       <c r="R18" t="n">
-        <v>6706420.277873509</v>
+        <v>6706662.790294011</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2632,39 +2656,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>~15</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Alex Karlstens</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Alex Karlstens, Henrike Wiemker</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>108366368</v>
+        <v>108367422</v>
       </c>
       <c r="B19" t="n">
-        <v>95519</v>
+        <v>98520</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2677,21 +2697,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2701,13 +2721,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>664310.390329506</v>
+        <v>664031.9927673884</v>
       </c>
       <c r="R19" t="n">
-        <v>6706640.834387085</v>
+        <v>6706430.630560055</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2747,11 +2767,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>#SAKNAS!</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2766,19 +2781,19 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>108362978</v>
+        <v>108366389</v>
       </c>
       <c r="B20" t="n">
         <v>98520</v>
@@ -2812,23 +2827,19 @@
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>664358.716905606</v>
+        <v>664390.7774999265</v>
       </c>
       <c r="R20" t="n">
-        <v>6706524.488135655</v>
+        <v>6706679.060225561</v>
       </c>
       <c r="S20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2870,35 +2881,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>#SAKNAS!</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>108364176</v>
+        <v>108362970</v>
       </c>
       <c r="B21" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2907,45 +2922,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>664357.0554228717</v>
+        <v>664050.0313263643</v>
       </c>
       <c r="R21" t="n">
-        <v>6706081.823755138</v>
+        <v>6706403.78774385</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2987,35 +2998,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>10 st</t>
+        </is>
+      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>108366378</v>
+        <v>108369212</v>
       </c>
       <c r="B22" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3024,25 +3039,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3052,13 +3067,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>664061.6738701967</v>
+        <v>664376.7433143377</v>
       </c>
       <c r="R22" t="n">
-        <v>6706376.160810499</v>
+        <v>6706585.072281209</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3102,7 +3117,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>40+</t>
+          <t>#SAKNAS!</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3117,22 +3132,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Nadja Nilsson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Nadja Nilsson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>108366379</v>
+        <v>108364168</v>
       </c>
       <c r="B23" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3141,41 +3156,45 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>664345.1822775409</v>
+        <v>663800.9281762429</v>
       </c>
       <c r="R23" t="n">
-        <v>6706081.778464028</v>
+        <v>6706431.02856625</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3217,36 +3236,32 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>6 st individer</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>108368201</v>
+        <v>108364169</v>
       </c>
       <c r="B24" t="n">
         <v>98520</v>
@@ -3279,24 +3294,28 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>664043.2345453694</v>
+        <v>664031.6798924522</v>
       </c>
       <c r="R24" t="n">
-        <v>6706662.790294011</v>
+        <v>6706437.531513099</v>
       </c>
       <c r="S24" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3351,19 +3370,19 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Alex Karlstens</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Alex Karlstens, Henrike Wiemker</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>108367422</v>
+        <v>108369533</v>
       </c>
       <c r="B25" t="n">
         <v>98520</v>
@@ -3403,13 +3422,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>664031.9927673884</v>
+        <v>664278.1608715461</v>
       </c>
       <c r="R25" t="n">
-        <v>6706430.630560055</v>
+        <v>6706064.903315648</v>
       </c>
       <c r="S25" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3449,6 +3468,11 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Ä</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3463,19 +3487,19 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Sebastian Rylander Misgeld</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Sebastian Rylander Misgeld</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>108366389</v>
+        <v>108366386</v>
       </c>
       <c r="B26" t="n">
         <v>98520</v>
@@ -3515,10 +3539,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>664390.7774999265</v>
+        <v>664317.9843146978</v>
       </c>
       <c r="R26" t="n">
-        <v>6706679.060225561</v>
+        <v>6706517.204654344</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3592,10 +3616,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>108362970</v>
+        <v>108366248</v>
       </c>
       <c r="B27" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3604,25 +3628,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3632,13 +3656,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>664050.0313263643</v>
+        <v>664202.0899005383</v>
       </c>
       <c r="R27" t="n">
-        <v>6706403.78774385</v>
+        <v>6706639.868494829</v>
       </c>
       <c r="S27" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3678,11 +3702,6 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>10 st</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3697,22 +3716,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Elin Lönnberg</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Elin Lönnberg</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>108369212</v>
+        <v>108362971</v>
       </c>
       <c r="B28" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3721,41 +3740,49 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>664376.7433143377</v>
+        <v>664036.3631341013</v>
       </c>
       <c r="R28" t="n">
-        <v>6706585.072281209</v>
+        <v>6706399.710419852</v>
       </c>
       <c r="S28" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3799,7 +3826,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>#SAKNAS!</t>
+          <t>20 st</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3808,28 +3835,29 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Nadja Nilsson</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Nadja Nilsson</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>108364168</v>
+        <v>108362973</v>
       </c>
       <c r="B29" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3838,45 +3866,49 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>663800.9281762429</v>
+        <v>664068.2285900875</v>
       </c>
       <c r="R29" t="n">
-        <v>6706431.02856625</v>
+        <v>6706384.361181245</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3916,6 +3948,11 @@
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>20 st</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3931,19 +3968,19 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>108364169</v>
+        <v>108368211</v>
       </c>
       <c r="B30" t="n">
         <v>98520</v>
@@ -3978,7 +4015,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -3987,17 +4024,17 @@
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>664031.6798924522</v>
+        <v>664296.1290494655</v>
       </c>
       <c r="R30" t="n">
-        <v>6706437.531513099</v>
+        <v>6705985.197514531</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4037,6 +4074,11 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>ca 20</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4052,19 +4094,19 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Alex Karlstens</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Alex Karlstens, Henrike Wiemker</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>108369533</v>
+        <v>108364184</v>
       </c>
       <c r="B31" t="n">
         <v>98520</v>
@@ -4098,19 +4140,23 @@
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>664278.1608715461</v>
+        <v>664228.1234533084</v>
       </c>
       <c r="R31" t="n">
-        <v>6706064.903315648</v>
+        <v>6706654.879753803</v>
       </c>
       <c r="S31" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4152,36 +4198,32 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Ä</t>
-        </is>
-      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Sebastian Rylander Misgeld</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Sebastian Rylander Misgeld</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>108366386</v>
+        <v>108364163</v>
       </c>
       <c r="B32" t="n">
         <v>98520</v>
@@ -4215,19 +4257,23 @@
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>664317.9843146978</v>
+        <v>664183.904062137</v>
       </c>
       <c r="R32" t="n">
-        <v>6706517.204654344</v>
+        <v>6706735.354853709</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4271,7 +4317,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>#SAKNAS!</t>
+          <t>&gt; 10 st</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4280,28 +4326,29 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>108362971</v>
+        <v>108369534</v>
       </c>
       <c r="B33" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4310,49 +4357,41 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>664036.3631341013</v>
+        <v>664311.3445020401</v>
       </c>
       <c r="R33" t="n">
-        <v>6706399.710419852</v>
+        <v>6705966.128203513</v>
       </c>
       <c r="S33" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4394,40 +4433,34 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>20 st</t>
-        </is>
-      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Sebastian Rylander Misgeld</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Sebastian Rylander Misgeld</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>108362973</v>
+        <v>108364182</v>
       </c>
       <c r="B34" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4436,30 +4469,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -4468,17 +4501,17 @@
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>664068.2285900875</v>
+        <v>664315.6042783445</v>
       </c>
       <c r="R34" t="n">
-        <v>6706384.361181245</v>
+        <v>6706711.206382412</v>
       </c>
       <c r="S34" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4518,11 +4551,6 @@
       <c r="AB34" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>20 st</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4538,19 +4566,19 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>108368211</v>
+        <v>108364170</v>
       </c>
       <c r="B35" t="n">
         <v>98520</v>
@@ -4585,7 +4613,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -4594,17 +4622,17 @@
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>664296.1290494655</v>
+        <v>664031.2246272038</v>
       </c>
       <c r="R35" t="n">
-        <v>6705985.197514531</v>
+        <v>6706403.922936056</v>
       </c>
       <c r="S35" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4644,11 +4672,6 @@
       <c r="AB35" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>ca 20</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4664,19 +4687,19 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Alex Karlstens</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Alex Karlstens, Henrike Wiemker</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>108364163</v>
+        <v>108364175</v>
       </c>
       <c r="B36" t="n">
         <v>98520</v>
@@ -4709,7 +4732,11 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -4720,10 +4747,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>664183.904062137</v>
+        <v>664351.3079933061</v>
       </c>
       <c r="R36" t="n">
-        <v>6706735.354853709</v>
+        <v>6706066.742948183</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4766,11 +4793,6 @@
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>&gt; 10 st</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4798,7 +4820,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>108364182</v>
+        <v>108370283</v>
       </c>
       <c r="B37" t="n">
         <v>98520</v>
@@ -4831,28 +4853,20 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>664315.6042783445</v>
+        <v>664308.1460447711</v>
       </c>
       <c r="R37" t="n">
-        <v>6706711.206382412</v>
+        <v>6706058.360879435</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4894,35 +4908,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>#SAKNAS!</t>
+        </is>
+      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Rebecka Wikström</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Rebecka Wikström</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>108364170</v>
+        <v>108368196</v>
       </c>
       <c r="B38" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4931,30 +4949,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -4963,17 +4981,17 @@
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>664031.2246272038</v>
+        <v>664351.2643915763</v>
       </c>
       <c r="R38" t="n">
-        <v>6706403.922936056</v>
+        <v>6706078.596774301</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5013,6 +5031,11 @@
       <c r="AB38" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>ca 30 rosetter</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5028,19 +5051,19 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Alex Karlstens</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Alex Karlstens, Henrike Wiemker</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>108364175</v>
+        <v>108367426</v>
       </c>
       <c r="B39" t="n">
         <v>98520</v>
@@ -5073,28 +5096,20 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>664351.3079933061</v>
+        <v>664205.9515626372</v>
       </c>
       <c r="R39" t="n">
-        <v>6706066.742948183</v>
+        <v>6706652.885488234</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5142,26 +5157,25 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>108370283</v>
+        <v>108369213</v>
       </c>
       <c r="B40" t="n">
         <v>98520</v>
@@ -5201,10 +5215,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>664308.1460447711</v>
+        <v>664339.5368474015</v>
       </c>
       <c r="R40" t="n">
-        <v>6706058.360879435</v>
+        <v>6706598.199619171</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5266,19 +5280,19 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Rebecka Wikström</t>
+          <t>Nadja Nilsson</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Rebecka Wikström</t>
+          <t>Nadja Nilsson</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>108368196</v>
+        <v>108366376</v>
       </c>
       <c r="B41" t="n">
         <v>96334</v>
@@ -5311,28 +5325,20 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>664351.2643915763</v>
+        <v>664056.4479009026</v>
       </c>
       <c r="R41" t="n">
-        <v>6706078.596774301</v>
+        <v>6706393.211933863</v>
       </c>
       <c r="S41" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5376,7 +5382,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>ca 30 rosetter</t>
+          <t>#SAKNAS!</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5385,26 +5391,25 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Alex Karlstens</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Alex Karlstens, Henrike Wiemker</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>108369213</v>
+        <v>108364178</v>
       </c>
       <c r="B42" t="n">
         <v>98520</v>
@@ -5437,20 +5442,28 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>664339.5368474015</v>
+        <v>664287.0339200129</v>
       </c>
       <c r="R42" t="n">
-        <v>6706598.199619171</v>
+        <v>6706490.608501049</v>
       </c>
       <c r="S42" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5492,39 +5505,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>#SAKNAS!</t>
-        </is>
-      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
       <c r="AE42" t="b">
         <v>0</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Nadja Nilsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Nadja Nilsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>108366376</v>
+        <v>108368208</v>
       </c>
       <c r="B43" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5533,41 +5542,45 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>664056.4479009026</v>
+        <v>664027.0512573549</v>
       </c>
       <c r="R43" t="n">
-        <v>6706393.211933863</v>
+        <v>6706408.673150744</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5609,39 +5622,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>#SAKNAS!</t>
-        </is>
-      </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Alex Karlstens</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Alex Karlstens, Henrike Wiemker</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>108364178</v>
+        <v>108368188</v>
       </c>
       <c r="B44" t="n">
-        <v>98520</v>
+        <v>56411</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5650,49 +5659,49 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>664287.0339200129</v>
+        <v>664344.3865615834</v>
       </c>
       <c r="R44" t="n">
-        <v>6706490.608501049</v>
+        <v>6705990.352916429</v>
       </c>
       <c r="S44" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5734,35 +5743,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>hackspår</t>
+        </is>
+      </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="b">
         <v>0</v>
       </c>
-      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Alex Karlstens</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Alex Karlstens, Henrike Wiemker</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>108368208</v>
+        <v>108366373</v>
       </c>
       <c r="B45" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5771,45 +5784,41 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>664027.0512573549</v>
+        <v>663958.2655427188</v>
       </c>
       <c r="R45" t="n">
-        <v>6706408.673150744</v>
+        <v>6706409.012911058</v>
       </c>
       <c r="S45" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5851,35 +5860,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>#SAKNAS!</t>
+        </is>
+      </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Alex Karlstens</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Alex Karlstens, Henrike Wiemker</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>108368188</v>
+        <v>108362974</v>
       </c>
       <c r="B46" t="n">
-        <v>56411</v>
+        <v>96334</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5888,35 +5901,35 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -5924,13 +5937,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>664344.3865615834</v>
+        <v>664066.6783353648</v>
       </c>
       <c r="R46" t="n">
-        <v>6705990.352916429</v>
+        <v>6706374.90590198</v>
       </c>
       <c r="S46" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5974,7 +5987,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>hackspår</t>
+          <t>20 st</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5983,28 +5996,29 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
+      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Alex Karlstens</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Alex Karlstens, Henrike Wiemker</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>108366373</v>
+        <v>108368206</v>
       </c>
       <c r="B47" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6013,41 +6027,45 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>663958.2655427188</v>
+        <v>663806.0217247612</v>
       </c>
       <c r="R47" t="n">
-        <v>6706409.012911058</v>
+        <v>6706427.801624826</v>
       </c>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6089,39 +6107,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>#SAKNAS!</t>
-        </is>
-      </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Alex Karlstens</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Alex Karlstens, Henrike Wiemker</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>108362974</v>
+        <v>108368205</v>
       </c>
       <c r="B48" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6130,32 +6144,28 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
@@ -6166,13 +6176,13 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>664066.6783353648</v>
+        <v>663771.9066559088</v>
       </c>
       <c r="R48" t="n">
-        <v>6706374.90590198</v>
+        <v>6706416.378482279</v>
       </c>
       <c r="S48" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6212,11 +6222,6 @@
       <c r="AB48" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>20 st</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6232,19 +6237,19 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Alex Karlstens</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Alex Karlstens, Henrike Wiemker</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>108368206</v>
+        <v>108368214</v>
       </c>
       <c r="B49" t="n">
         <v>98520</v>
@@ -6288,10 +6293,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>663806.0217247612</v>
+        <v>664390.1407508242</v>
       </c>
       <c r="R49" t="n">
-        <v>6706427.801624826</v>
+        <v>6706584.199258863</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6361,7 +6366,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>108368205</v>
+        <v>108366247</v>
       </c>
       <c r="B50" t="n">
         <v>98520</v>
@@ -6395,20 +6400,16 @@
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>663771.9066559088</v>
+        <v>664314.4742925556</v>
       </c>
       <c r="R50" t="n">
-        <v>6706416.378482279</v>
+        <v>6706638.056388071</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6459,26 +6460,25 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Alex Karlstens</t>
+          <t>Elin Lönnberg</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Alex Karlstens, Henrike Wiemker</t>
+          <t>Elin Lönnberg</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>108368214</v>
+        <v>108366383</v>
       </c>
       <c r="B51" t="n">
         <v>98520</v>
@@ -6512,23 +6512,19 @@
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>664390.1407508242</v>
+        <v>663804.9003548119</v>
       </c>
       <c r="R51" t="n">
-        <v>6706584.199258863</v>
+        <v>6706430.714469573</v>
       </c>
       <c r="S51" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6570,32 +6566,36 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>#SAKNAS!</t>
+        </is>
+      </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Alex Karlstens</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Alex Karlstens, Henrike Wiemker</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>108366247</v>
+        <v>108366385</v>
       </c>
       <c r="B52" t="n">
         <v>98520</v>
@@ -6635,13 +6635,13 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>664314.4742925556</v>
+        <v>664069.8780527997</v>
       </c>
       <c r="R52" t="n">
-        <v>6706638.056388071</v>
+        <v>6706446.178670711</v>
       </c>
       <c r="S52" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6681,6 +6681,11 @@
       <c r="AB52" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>Bukett</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6695,19 +6700,19 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Elin Lönnberg</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Elin Lönnberg</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>108366383</v>
+        <v>108364177</v>
       </c>
       <c r="B53" t="n">
         <v>98520</v>
@@ -6741,19 +6746,23 @@
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>663804.9003548119</v>
+        <v>664302.6912898349</v>
       </c>
       <c r="R53" t="n">
-        <v>6706430.714469573</v>
+        <v>6706429.083239628</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6795,36 +6804,32 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>#SAKNAS!</t>
-        </is>
-      </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="b">
         <v>0</v>
       </c>
+      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>108366385</v>
+        <v>108369540</v>
       </c>
       <c r="B54" t="n">
         <v>98520</v>
@@ -6864,13 +6869,13 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>664069.8780527997</v>
+        <v>664075.7629492856</v>
       </c>
       <c r="R54" t="n">
-        <v>6706446.178670711</v>
+        <v>6706349.138583452</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6910,11 +6915,6 @@
       <c r="AB54" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>Bukett</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6929,19 +6929,19 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Sebastian Rylander Misgeld</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Sebastian Rylander Misgeld</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>108369540</v>
+        <v>108364162</v>
       </c>
       <c r="B55" t="n">
         <v>98520</v>
@@ -6975,19 +6975,23 @@
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>664075.7629492856</v>
+        <v>664236.3332918913</v>
       </c>
       <c r="R55" t="n">
-        <v>6706349.138583452</v>
+        <v>6706800.953417752</v>
       </c>
       <c r="S55" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -7029,31 +7033,37 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>&gt; 10 st</t>
+        </is>
+      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Sebastian Rylander Misgeld</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Sebastian Rylander Misgeld</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>108364162</v>
+        <v>108364180</v>
       </c>
       <c r="B56" t="n">
         <v>98520</v>
@@ -7086,7 +7096,11 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
@@ -7097,10 +7111,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>664236.3332918913</v>
+        <v>664296.2343592797</v>
       </c>
       <c r="R56" t="n">
-        <v>6706800.953417752</v>
+        <v>6706484.11120915</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7143,11 +7157,6 @@
       <c r="AB56" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>&gt; 10 st</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7175,7 +7184,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>108364180</v>
+        <v>108370282</v>
       </c>
       <c r="B57" t="n">
         <v>98520</v>
@@ -7208,28 +7217,20 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>664296.2343592797</v>
+        <v>664060.0912197812</v>
       </c>
       <c r="R57" t="n">
-        <v>6706484.11120915</v>
+        <v>6706312.863320662</v>
       </c>
       <c r="S57" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7271,32 +7272,36 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>#SAKNAS!</t>
+        </is>
+      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Rebecka Wikström</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Rebecka Wikström</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>108370282</v>
+        <v>108369536</v>
       </c>
       <c r="B58" t="n">
         <v>98520</v>
@@ -7336,10 +7341,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>664060.0912197812</v>
+        <v>664303.9785297166</v>
       </c>
       <c r="R58" t="n">
-        <v>6706312.863320662</v>
+        <v>6706498.786996139</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7384,11 +7389,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>#SAKNAS!</t>
-        </is>
-      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
@@ -7401,19 +7401,19 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Rebecka Wikström</t>
+          <t>Sebastian Rylander Misgeld</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Rebecka Wikström</t>
+          <t>Sebastian Rylander Misgeld</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>108369536</v>
+        <v>108369538</v>
       </c>
       <c r="B59" t="n">
         <v>98520</v>
@@ -7453,10 +7453,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>664303.9785297166</v>
+        <v>664339.2032271541</v>
       </c>
       <c r="R59" t="n">
-        <v>6706498.786996139</v>
+        <v>6706627.325664996</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7525,7 +7525,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>108369538</v>
+        <v>108368209</v>
       </c>
       <c r="B60" t="n">
         <v>98520</v>
@@ -7559,16 +7559,20 @@
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>664339.2032271541</v>
+        <v>664277.1733043597</v>
       </c>
       <c r="R60" t="n">
-        <v>6706627.325664996</v>
+        <v>6706064.858480364</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7619,28 +7623,29 @@
       <c r="AE60" t="b">
         <v>0</v>
       </c>
+      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Sebastian Rylander Misgeld</t>
+          <t>Alex Karlstens</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Sebastian Rylander Misgeld</t>
+          <t>Alex Karlstens, Henrike Wiemker</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>108368209</v>
+        <v>108362975</v>
       </c>
       <c r="B61" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7649,28 +7654,32 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
@@ -7681,13 +7690,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>664277.1733043597</v>
+        <v>664058.4005024903</v>
       </c>
       <c r="R61" t="n">
-        <v>6706064.858480364</v>
+        <v>6706393.794417568</v>
       </c>
       <c r="S61" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7727,6 +7736,11 @@
       <c r="AB61" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>10 st</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7742,22 +7756,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Alex Karlstens</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Alex Karlstens, Henrike Wiemker</t>
+          <t>Erik Garmo</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>108362975</v>
+        <v>108369535</v>
       </c>
       <c r="B62" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7766,49 +7780,41 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Önsbo, Upl</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>664058.4005024903</v>
+        <v>664287.7706922751</v>
       </c>
       <c r="R62" t="n">
-        <v>6706393.794417568</v>
+        <v>6706093.003061255</v>
       </c>
       <c r="S62" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7850,30 +7856,24 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>10 st</t>
-        </is>
-      </c>
       <c r="AD62" t="b">
         <v>0</v>
       </c>
       <c r="AE62" t="b">
         <v>0</v>
       </c>
-      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Sebastian Rylander Misgeld</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Erik Garmo</t>
+          <t>Sebastian Rylander Misgeld</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
@@ -8230,7 +8230,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>108423321</v>
+        <v>108423324</v>
       </c>
       <c r="B66" t="n">
         <v>98520</v>
@@ -8270,10 +8270,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>664207.0478797765</v>
+        <v>664226.3261913233</v>
       </c>
       <c r="R66" t="n">
-        <v>6706312.614478189</v>
+        <v>6706639.980795574</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8342,10 +8342,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>108423310</v>
+        <v>108423321</v>
       </c>
       <c r="B67" t="n">
-        <v>95511</v>
+        <v>98520</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8358,21 +8358,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>221944</v>
+        <v>222498</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8382,10 +8382,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>664336.8603618066</v>
+        <v>664207.0478797765</v>
       </c>
       <c r="R67" t="n">
-        <v>6706330.363247767</v>
+        <v>6706312.614478189</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8454,10 +8454,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>108423322</v>
+        <v>108423310</v>
       </c>
       <c r="B68" t="n">
-        <v>98520</v>
+        <v>95511</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8470,21 +8470,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>222498</v>
+        <v>221944</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8494,10 +8494,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>664330.8234481897</v>
+        <v>664336.8603618066</v>
       </c>
       <c r="R68" t="n">
-        <v>6706332.558836454</v>
+        <v>6706330.363247767</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8566,7 +8566,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>108423323</v>
+        <v>108423322</v>
       </c>
       <c r="B69" t="n">
         <v>98520</v>
@@ -8606,10 +8606,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>664362.7209625107</v>
+        <v>664330.8234481897</v>
       </c>
       <c r="R69" t="n">
-        <v>6706621.479216716</v>
+        <v>6706332.558836454</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8678,10 +8678,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>108434213</v>
+        <v>108423323</v>
       </c>
       <c r="B70" t="n">
-        <v>55649</v>
+        <v>98520</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8694,34 +8694,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>208255</v>
+        <v>222498</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Skogsödla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Zootoca vivipara</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Jacquin, 1787)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Önsbo, Upl</t>
+          <t>Önsbo-Göksnåre, Upl</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>664122.3040311314</v>
+        <v>664362.7209625107</v>
       </c>
       <c r="R70" t="n">
-        <v>6706053.878872935</v>
+        <v>6706621.479216716</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8748,7 +8748,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2023-04-22</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2023-04-22</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
@@ -8778,22 +8778,22 @@
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Elin Lönnberg</t>
+          <t>Ingemar Södergren</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Elin Lönnberg</t>
+          <t>Ingemar Södergren</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>108369534</v>
+        <v>108434213</v>
       </c>
       <c r="B71" t="n">
-        <v>98520</v>
+        <v>55649</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8806,21 +8806,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>222498</v>
+        <v>208255</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skogsödla</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Zootoca vivipara</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Jacquin, 1787)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>664311.3445020401</v>
+        <v>664122.3040311314</v>
       </c>
       <c r="R71" t="n">
-        <v>6705966.128203513</v>
+        <v>6706053.878872935</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2023-04-22</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -8870,7 +8870,7 @@
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2023-04-22</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
@@ -8890,12 +8890,12 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Sebastian Rylander Misgeld</t>
+          <t>Elin Lönnberg</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Sebastian Rylander Misgeld</t>
+          <t>Elin Lönnberg</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
